--- a/day4/TestDatas/api_cases.xlsx
+++ b/day4/TestDatas/api_cases.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12450"/>
+    <workbookView windowWidth="28125" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="create" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -32,6 +33,9 @@
   </si>
   <si>
     <t>expected</t>
+  </si>
+  <si>
+    <t>check_sql</t>
   </si>
   <si>
     <t>登录成功</t>
@@ -60,6 +64,9 @@
 }</t>
   </si>
   <si>
+    <t>select id from back_ground_user where user_phone = 13252254992</t>
+  </si>
+  <si>
     <t>登录失败_错误账号</t>
   </si>
   <si>
@@ -110,15 +117,36 @@
     "data": null
 }</t>
   </si>
+  <si>
+    <t>注册成功</t>
+  </si>
+  <si>
+    <t>http://userback.yaoweilai.cn:88/api/gateway/system/backGroundUser/addBackGroundUser</t>
+  </si>
+  <si>
+    <t>{"userName": "123", "userPhone": "15574866558", "userPass": "", "identity": "BackGroundUser",
+                         "roleId": 1, "userGenerateCode": ""}</t>
+  </si>
+  <si>
+    <t>{
+    "code":"100001",
+    "desc":"成功",
+    "success":True,
+    "data": True
+}</t>
+  </si>
+  <si>
+    <t>select id from back_ground_user where user_phone = 15574866558</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -138,23 +166,97 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,53 +270,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,36 +301,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -283,13 +311,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,169 +371,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,15 +502,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -501,15 +520,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -521,6 +531,48 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,30 +602,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -582,10 +610,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,16 +622,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,115 +640,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1053,23 +1081,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="64.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="60.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="100.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="22" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1088,25 +1117,31 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" ht="250" customHeight="1" spans="1:6">
+    <row r="2" ht="250" customHeight="1" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" ht="250" customHeight="1" spans="1:6">
@@ -1114,19 +1149,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" ht="250" customHeight="1" spans="1:6">
@@ -1134,19 +1169,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" ht="250" customHeight="1" spans="1:6">
@@ -1154,19 +1189,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1179,4 +1214,79 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="22.75" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="42.5" customWidth="1"/>
+    <col min="5" max="5" width="39.625" customWidth="1"/>
+    <col min="6" max="6" width="51.875" customWidth="1"/>
+    <col min="7" max="7" width="18.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="81" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="http://userback.yaoweilai.cn:88/api/gateway/system/backGroundUser/addBackGroundUser" tooltip="http://userback.yaoweilai.cn:88/api/gateway/system/backGroundUser/addBackGroundUser"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/day4/TestDatas/api_cases.xlsx
+++ b/day4/TestDatas/api_cases.xlsx
@@ -44,7 +44,7 @@
     <t>post</t>
   </si>
   <si>
-    <t>http://userback.yaoweilai.cn:88/api/gateway/system/v2/login</t>
+    <t>api/gateway/system/v2/login</t>
   </si>
   <si>
     <t>{
@@ -121,10 +121,10 @@
     <t>注册成功</t>
   </si>
   <si>
-    <t>http://userback.yaoweilai.cn:88/api/gateway/system/backGroundUser/addBackGroundUser</t>
-  </si>
-  <si>
-    <t>{"userName": "123", "userPhone": "15574866558", "userPass": "", "identity": "BackGroundUser",
+    <t>api/gateway/system/backGroundUser/addBackGroundUser</t>
+  </si>
+  <si>
+    <t>{"userName": "123", "userPhone": "#phone#", "userPass": "", "identity": "BackGroundUser",
                          "roleId": 1, "userGenerateCode": ""}</t>
   </si>
   <si>
@@ -136,7 +136,7 @@
 }</t>
   </si>
   <si>
-    <t>select id from back_ground_user where user_phone = 15574866558</t>
+    <t>select id from back_ground_user where user_phone = #phone#</t>
   </si>
 </sst>
 </file>
@@ -144,9 +144,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -158,9 +158,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,10 +187,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,20 +219,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -213,36 +236,6 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,11 +247,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -270,6 +279,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -279,24 +295,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,187 +311,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,6 +502,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -516,6 +527,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,8 +573,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,7 +583,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,41 +602,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -610,10 +610,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -622,144 +622,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1083,8 +1080,8 @@
   <sheetPr/>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1131,7 +1128,7 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1154,7 +1151,7 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1174,7 +1171,7 @@
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1194,7 +1191,7 @@
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1206,10 +1203,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://userback.yaoweilai.cn:88/api/gateway/system/v2/login"/>
-    <hyperlink ref="D3" r:id="rId1" display="http://userback.yaoweilai.cn:88/api/gateway/system/v2/login" tooltip="http://userback.yaoweilai.cn:88/api/gateway/system/v2/login"/>
-    <hyperlink ref="D4" r:id="rId1" display="http://userback.yaoweilai.cn:88/api/gateway/system/v2/login" tooltip="http://userback.yaoweilai.cn:88/api/gateway/system/v2/login"/>
-    <hyperlink ref="D5" r:id="rId1" display="http://userback.yaoweilai.cn:88/api/gateway/system/v2/login" tooltip="http://userback.yaoweilai.cn:88/api/gateway/system/v2/login"/>
+    <hyperlink ref="D4" r:id="rId1" display="api/gateway/system/v2/login" tooltip="http://userback.yaoweilai.cn:88/api/gateway/system/v2/login"/>
+    <hyperlink ref="D5" r:id="rId1" display="api/gateway/system/v2/login" tooltip="http://userback.yaoweilai.cn:88/api/gateway/system/v2/login"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1222,7 +1217,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
@@ -1230,13 +1225,13 @@
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="22.75" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="42.5" customWidth="1"/>
+    <col min="4" max="4" width="61.25" customWidth="1"/>
     <col min="5" max="5" width="39.625" customWidth="1"/>
     <col min="6" max="6" width="51.875" customWidth="1"/>
     <col min="7" max="7" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:7">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1269,7 +1264,7 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1283,9 +1278,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://userback.yaoweilai.cn:88/api/gateway/system/backGroundUser/addBackGroundUser" tooltip="http://userback.yaoweilai.cn:88/api/gateway/system/backGroundUser/addBackGroundUser"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/day4/TestDatas/api_cases.xlsx
+++ b/day4/TestDatas/api_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12450"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -138,16 +138,31 @@
   <si>
     <t>select id from back_ground_user where user_phone = #phone#</t>
   </si>
+  <si>
+    <t>注册失败-手机号码格式错误</t>
+  </si>
+  <si>
+    <t>{"userName": "测试失败", "userPhone": "155745", "userPass": "", "identity": "BackGroundUser",
+                         "roleId": 1, "userGenerateCode": ""}</t>
+  </si>
+  <si>
+    <t>{
+    "code": "20007",
+    "desc": "参数校验出错",
+    "success": false,
+    "data": "手机号验证有误"
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -158,6 +173,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -165,39 +203,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,8 +257,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,20 +267,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,30 +280,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -279,24 +288,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,13 +326,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,55 +452,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,109 +494,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,10 +522,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -527,6 +540,56 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,54 +617,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -610,10 +625,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -622,133 +637,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1080,7 +1095,7 @@
   <sheetPr/>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1214,13 +1229,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="22.75" customWidth="1"/>
@@ -1277,6 +1292,27 @@
         <v>26</v>
       </c>
     </row>
+    <row r="3" ht="81" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
